--- a/data/trans_orig/P14B33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFAF7F2A-FFBB-4941-A9FA-C64E5E1B7EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6CF6A01-44EA-43E6-868E-1FEB417F2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6AE9B9E0-D2E0-4C23-83F1-51036B8C5607}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{994DA81A-8B23-40FB-9844-96331D284C00}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>23,35%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>61,08%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -126,7 +126,7 @@
     <t>76,65%</t>
   </si>
   <si>
-    <t>38,06%</t>
+    <t>38,92%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -141,31 +141,31 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>54,36%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>22,49%</t>
   </si>
   <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>45,64%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F53A02E-9381-4291-9111-C87A37FA13B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E93161-A03E-4AA8-B51B-91E6476DEDDA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F23B24E-FCDA-4A2C-9B97-A974D93CACE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5095711C-CB41-4833-A64B-598BFED02E68}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B33-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6CF6A01-44EA-43E6-868E-1FEB417F2770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DF7867-5649-49CF-8E58-809B44A1F578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{994DA81A-8B23-40FB-9844-96331D284C00}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AEC7FEE9-633D-43E8-9619-BA3410541764}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -111,7 +111,7 @@
     <t>23,35%</t>
   </si>
   <si>
-    <t>61,08%</t>
+    <t>61,07%</t>
   </si>
   <si>
     <t>61,54%</t>
@@ -126,7 +126,7 @@
     <t>76,65%</t>
   </si>
   <si>
-    <t>38,92%</t>
+    <t>38,93%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -141,7 +141,7 @@
     <t>13,28%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>22,49%</t>
@@ -150,19 +150,19 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>52,42%</t>
+    <t>53,44%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>44,65%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>77,51%</t>
   </si>
   <si>
-    <t>47,58%</t>
+    <t>46,56%</t>
   </si>
   <si>
     <t>93,15%</t>
@@ -171,7 +171,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya esterilidad le limita en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población cuya esterilidad le limita en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -192,7 +192,7 @@
     <t>18,56%</t>
   </si>
   <si>
-    <t>80,38%</t>
+    <t>77,78%</t>
   </si>
   <si>
     <t>68,27%</t>
@@ -201,7 +201,7 @@
     <t>81,44%</t>
   </si>
   <si>
-    <t>19,62%</t>
+    <t>22,22%</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E93161-A03E-4AA8-B51B-91E6476DEDDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F5459-067E-47DF-9102-F1104E0D2CB8}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5095711C-CB41-4833-A64B-598BFED02E68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9703E39-2C06-4D0E-B1E9-E3C21B88A41F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
